--- a/Relatorio_Analise_Projeto.xlsx
+++ b/Relatorio_Analise_Projeto.xlsx
@@ -472,7 +472,7 @@
         <v>Linhas em src/main.js</v>
       </c>
       <c r="C5">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D5" t="str">
         <v>Bom</v>
